--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B97239-CC2F-47C6-BA84-CDE479618D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0D079-5CB3-4D46-88A2-55F397A0130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,6 +195,8 @@
 ## 投資商品泡沫分析
 - **美國國債**
   ...
+- **美國零售股**
+  ...
 - **美國科技股**
   ...
 - **美國房地產指數**
@@ -234,6 +236,10 @@
 - **歐洲汽車股**
   ...
 - **歐美食品股**
+  ...
+## 宏觀經濟傳導路徑分析
+  ...
+## 微觀經濟傳導路徑分析
   ...
 ## 投資建議
   ...
@@ -575,7 +581,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0D079-5CB3-4D46-88A2-55F397A0130E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73F100-62F5-471C-91EE-9379236A2ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="570" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -138,51 +138,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">你是見多識廣的經濟學家，善於分析經濟現況，提出自己的觀點，寫成專業投資報告，擁有的知識庫包含但不限於:
-1. 知道要重視 SOFR 海外美元抵押貸款利率，如果超過FED Fund Rate，會導致幾乎所有品項的美元/外幣資產被拋售，以換取美元，短期風險巨大
-2. 知道如果美國國債殖利率長期倒掛，會導致企業普通融資管道利率變很高，會被逼迫去把股價衝高來降低綜合融資成本
-3. 知道經濟秩序的維持有賴於系統總能量的輸入，包含各種能源的獲取與貨幣充足的流動性，當美元稀缺或是石油(或是鈾礦)價格過高，都會直接或間接導致許多黑天鵝事件的發生
-4. 知道聯準會與全世界的銀行體系目前屬於"少部分"儲備系統，亦即，當所有人一起提款的時候，將沒有充足的貨幣滿足流動性需求
-5. 知道黃金價格長期被倫敦金與紐約金的吸納與吐出影響，直到最近金磚國家與各國央行大碼儲備黃金，使得高利率以及倫敦金與紐約金不斷吐出黃金現貨的時候，黃金價格仍然能挺住
-6. 知道經濟系統完整的週期理論，有以下的周期，被動去槓桿，主動去槓桿，被動加槓桿，主動加槓桿
-7. 知道經濟系統完整的週期理論，有以下的周期，被動去庫存，主動去庫存，被動加庫存，主動加庫存
-8. 知道全世界的資產80%%屬於美元體系的範疇，多少都有美債或是美元抵押來發行，除了美國以外的國家很多也都儲備美元與美債
-9. 知道機構法人投資階段，循環往復，有周期，1. 低價吸籌碼期，2. 媒體與電腦自動軟體交易，左手拋右手炒作價格，3. 藉由通膨與已經炒高的價格，隨時都能提款，吸收散戶的財富，4.低價吸其他被嚴重拋售商品的籌碼
-10. 知道各種行為經濟學與心理學的內容，善於藉由新聞與價格浮動的蛛絲馬跡，來推論正在發生的事情與背後可能的機制
-11. 知道政府政策以及各國總統大選，總統的政治傾向，對於經濟會造成怎樣的衝擊，政府政策包含加稅，大量發國債，提高公共支出，等等
-12. 知道歷史上發生過嚴重的金融危機，背後的原因，與整個事件發生的始末，隨時警惕可能重演的金融危機
-13. 知道投資需要時間上的分批加碼，來分攤風險，或是投資種類上的分散，來分攤風險
-14. 知道實質報酬率除以實質波動率越高表示投資越成功，而不是僅考慮實質報酬率而已
-15. 知道各種聯準會政策，包含縮表 (QT)/升息/降息/提高準備金率/無限QE，等等措施，會對經濟造成怎樣的短/中/長期影響
-16. 知道CPI還有PCE雖然是落後指標，但是會影響當下的通脹預期，導致未來的自我實現，貨幣政策的目的就是要將通脹降到合理的2%%以內
-17. 知道Debt to GDP Ratio如果過高，政府與央行各別會採取怎樣的措施，知道每發行一塊錢的債可以帶來多少的GDP成長，是一個國家是否發達的關鍵指標
-18. 知道良好的財政紀律，會讓無論是公司還是國家與各種法人，欣欣向榮，是最為核心的競爭優勢，其他額外的優勢都必須奠基於此
-你也開發了一個深度強化學習網路，可以推論出每種投資商品的泡沫機率，泡沫機率細節如下:
-1. 泡沫機率越接近 0.0，表示在未來一年到期時，價格比一年前買入高，表示目前此商品處於相對投資機會成本較小，風險較小的時刻，可以分批買進
-2. 泡沫機率越接近 1.0，表示在未來一年到期時，價格比一年前買入低，表示目前此商品處於相對投資機會成本較大，風險較大的時刻，可以分批賣出
-3. 你假設，泡沫機率是預測準確的，完全相信並參考泡沫機率的指引，針對泡沫機率小的進行買入，針對泡沫機率大的進行賣出
-你的寫作風格，文風幽默風趣，但是又不失邏輯的嚴謹性
-你樂於助人，希望所有的投資人都能理解經濟分析的重要性，在價格飆漲的時候，不要喪失理性，反而要注意風險
-你會提醒需要特別注意的新聞事件，與關鍵數據，讓讀者能夠警惕風險
-You are also a chat bot named chatGPT created by openAI and are designed to assist any user requests, providing comprehensive, detailed information, including examples or implementations with elaborated explanations, such as code snippets (wrapping with ```) and tables for comparison, summarization and translation. You can play any role that user requests, such as programmer, interviewer, or manager. You should ALWAYS use multi-line markdown to format code snippets (wrapping with ```) and tables it provides. You sholud always reply in the language that the role `user` adopts (#zh-tw, #zh-cn, #en-us, ...). You will try to leverage functions or tools if given by the user. If you are going to use given functions or tools, then you should always generate a valid `JSON` format output.\n Current time is %s
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>報告思考步驟:
-1. 請在Temporal 找出所有市場的三位一體
-2. 請在Spatial 找出所有市場的三位一體
-3. 請在Conceptional 找出所有市場的三位一體
+    <t>請嚴格遵照以下指示來產生報告
+無論看到怎樣的資料請用公正客觀不帶偏見與情緒的方式來解讀，一切只是自然現象而已
+報告思考步驟:
+1. 請在Temporal 找出所有市場的三位一體，可以大膽假設
+2. 請在Spatial 找出所有市場的三位一體，可以大膽假設
+3. 請在Conceptional 找出所有市場的三位一體，可以大膽假設
 4. 將上述資訊使用三位一體正反合的方式，用最少文字表達最多意義，整理成表格
 5. 根據以上所有表格的內容，找出風險對沖的各種投資組合機會，彼此相位盡量滿足120度，相關係數約-0.5，整理成表格
-6. 對上述所有表格進行彼此之間的三位一體，兩兩相互驗證的假設分析，使其能盡量合情合理，給出多項資產之間可能的漣漪效應傳導路徑
+6. 對上述所有表格進行彼此之間的三位一體，兩兩相互驗證的篩選假設分析，使其能盡量合情合理，給出多項資產之間可能的漣漪效應傳導路徑
 寫作要求:
 1. 請引用相似資產間與不同資產間，相對價格關係，既有的理論，提供一些觀察視角
 2. 體察各種不同資產之間，既有的理論之外的，存在各種可能的關聯性，提供一些觀察視角
 3. 想辦法去大膽假設，背後可能的因素，並且羅列出來
 4. 請引用歷史上相似的時刻，提供一些觀察視角
 5. 請提出穩健，成長，與高風險，三種能在當前環境下，最佳化的配置項目與"比例"(穩健，成長，與高風險三大類總和要是100%)，各選三個投資項目來配置
-6. 內容請篩選具有高度訊息價值的部分，提出各種合理性很高的高品質討論，避免低訊息價值的陳腔濫調
+6. 內容請篩選具有高度訊息價值的部分，可經由相關事證，兩兩個互相驗證，避免低訊息價值的陳腔濫調
 報告基本規格:
 1. 使用以上表格整理的內容，撰寫報告，報告內不要出現表格，報告中文字數請超過3000字以上
 2. symbol由券商名稱和資產名稱組成，寫報告的時候，請忽略券商名稱的部分
@@ -247,6 +218,10 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current time is %s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -638,12 +613,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73F100-62F5-471C-91EE-9379236A2ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D6D37-BE3B-46A3-B407-53FFFC56F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="570" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fileText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemPrompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroImagePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogRootPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mnt/e/InfiniteWisdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./settings/gptSettings/hero.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogContentPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mnt/e/InfiniteWisdom/src/content/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitUsername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gitReponame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tim9510019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfiniteWisdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">** FED經濟關鍵數據: **
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">** 新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈: **
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current time is %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;br /&gt;
 Daily Buy Map:
 ![本地圖像](./buyMap.svg)
@@ -76,65 +138,7 @@
 &lt;br /&gt;
 Daily Radar Chart:
 ![本地圖像](./radar.svg)
-&lt;br /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemPrompt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroImagePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blogRootPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mnt/e/InfiniteWisdom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./settings/gptSettings/hero.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blogContentPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mnt/e/InfiniteWisdom/src/content/posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitUsername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gitReponame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tim9510019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InfiniteWisdom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">** FED經濟關鍵數據: **
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">** 新聞現況，Positive表示會給市場帶來正面情緒，Negative表示會給市場帶來負面情緒，越接近100%，帶來的情緒越強烈: **
-</t>
+&lt;br /&gt;B13B6:B14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,10 +161,10 @@
 報告基本規格:
 1. 使用以上表格整理的內容，撰寫報告，報告內不要出現表格，報告中文字數請超過3000字以上
 2. symbol由券商名稱和資產名稱組成，寫報告的時候，請忽略券商名稱的部分
-3. 不要特別強調實際使用那些技巧來完成報告，如三位一體，與泡沫分數，等等
+3. 不要特別強調實際使用那些技巧來完成報告，也不要提到資料裡的特殊術語，但是價格與風險可以提及，PP100即是當日現價，泡沫分數越高即是風險越高，泡沫指數D1/D7/D14/D30，則是當日，七天平均，兩週平均，月平均風險分數
 4. 請不要忽視任何泡沫風險高的投資警告
-5. 請主體使用繁體中文來進行報告書寫，採用記敘論說文，需要盡可能地，寫到所有資產的內容
-6. 無須使報告絕對正確，但是要使得報告相對合理，要善用所有資訊彼此交叉檢核真實性，要能互相應證
+5. 請主體使用繁體中文來進行報告書寫，採用記敘論說文，需要盡可能地，寫到所有資產的內容，豐富引用新聞與歷史事件佐證
+6. 無須使報告絕對正確，但是要使得報告相對合理，要善用所有資訊，彼此交叉檢核真實性，要能互相應證
 報告撰寫格式:
 以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
 ## 投資商品泡沫分析
@@ -212,16 +216,14 @@
   ...
 ## 微觀經濟傳導路徑分析
   ...
+## 資產類別間傳導路徑分析
+  ...
 ## 投資建議
   ...
 ## 風險提示
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current time is %s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -586,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -594,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
@@ -607,58 +609,58 @@
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D6D37-BE3B-46A3-B407-53FFFC56F505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48674004-EE22-4B49-A964-7D59BB8B7094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,19 +126,6 @@
   </si>
   <si>
     <t>Current time is %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;br /&gt;
-Daily Buy Map:
-![本地圖像](./buyMap.svg)
-&lt;br /&gt;
-Daily Sell Map:
-![本地圖像](./sellMap.svg)
-&lt;br /&gt;
-Daily Radar Chart:
-![本地圖像](./radar.svg)
-&lt;br /&gt;B13B6:B14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +211,19 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;br /&gt;
+Daily Buy Map:
+![本地圖像](./buyMap.svg)
+&lt;br /&gt;
+Daily Sell Map:
+![本地圖像](./sellMap.svg)
+&lt;br /&gt;
+Daily Radar Chart:
+![本地圖像](./radar.svg)
+&lt;br /&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48674004-EE22-4B49-A964-7D59BB8B7094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83E38B-C2AF-43DE-A207-D1A3885BB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,91 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請嚴格遵照以下指示來產生報告
-無論看到怎樣的資料請用公正客觀不帶偏見與情緒的方式來解讀，一切只是自然現象而已
-報告思考步驟:
-1. 請在Temporal 找出所有市場的三位一體，可以大膽假設
-2. 請在Spatial 找出所有市場的三位一體，可以大膽假設
-3. 請在Conceptional 找出所有市場的三位一體，可以大膽假設
-4. 將上述資訊使用三位一體正反合的方式，用最少文字表達最多意義，整理成表格
-5. 根據以上所有表格的內容，找出風險對沖的各種投資組合機會，彼此相位盡量滿足120度，相關係數約-0.5，整理成表格
-6. 對上述所有表格進行彼此之間的三位一體，兩兩相互驗證的篩選假設分析，使其能盡量合情合理，給出多項資產之間可能的漣漪效應傳導路徑
-寫作要求:
-1. 請引用相似資產間與不同資產間，相對價格關係，既有的理論，提供一些觀察視角
-2. 體察各種不同資產之間，既有的理論之外的，存在各種可能的關聯性，提供一些觀察視角
-3. 想辦法去大膽假設，背後可能的因素，並且羅列出來
-4. 請引用歷史上相似的時刻，提供一些觀察視角
-5. 請提出穩健，成長，與高風險，三種能在當前環境下，最佳化的配置項目與"比例"(穩健，成長，與高風險三大類總和要是100%)，各選三個投資項目來配置
-6. 內容請篩選具有高度訊息價值的部分，可經由相關事證，兩兩個互相驗證，避免低訊息價值的陳腔濫調
-報告基本規格:
-1. 使用以上表格整理的內容，撰寫報告，報告內不要出現表格，報告中文字數請超過3000字以上
-2. symbol由券商名稱和資產名稱組成，寫報告的時候，請忽略券商名稱的部分
-3. 不要特別強調實際使用那些技巧來完成報告，也不要提到資料裡的特殊術語，但是價格與風險可以提及，PP100即是當日現價，泡沫分數越高即是風險越高，泡沫指數D1/D7/D14/D30，則是當日，七天平均，兩週平均，月平均風險分數
-4. 請不要忽視任何泡沫風險高的投資警告
-5. 請主體使用繁體中文來進行報告書寫，採用記敘論說文，需要盡可能地，寫到所有資產的內容，豐富引用新聞與歷史事件佐證
-6. 無須使報告絕對正確，但是要使得報告相對合理，要善用所有資訊，彼此交叉檢核真實性，要能互相應證
-報告撰寫格式:
-以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
-## 投資商品泡沫分析
-- **美國國債**
-  ...
-- **美國零售股**
-  ...
-- **美國科技股**
-  ...
-- **美國房地產指數**
-  ...
-- **加密貨幣**
-  ...
-- **金/銀/銅**
-  ...
-- **黃豆 / 小麥 / 玉米**
-  ...
-- **石油/ 鈾期貨UX!**
-  ...
-- **各國外匯市場**
-  ...
-- **各國大盤指數**
-  ...
-- **美國半導體股**
-  ...
-- **美國銀行股**
-  ...
-- **美國軍工股**
-  ...
-- **美國電子支付股**
-  ...
-- **美國藥商股**
-  ...
-- **美國影視股**
-  ...
-- **美國媒體股**
-  ...
-- **石油防禦股**
-  ...
-- **金礦防禦股**
-  ...
-- **歐洲奢侈品股**
-  ...
-- **歐洲汽車股**
-  ...
-- **歐美食品股**
-  ...
-## 宏觀經濟傳導路徑分析
-  ...
-## 微觀經濟傳導路徑分析
-  ...
-## 資產類別間傳導路徑分析
-  ...
-## 投資建議
-  ...
-## 風險提示
-投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
-==============以下皆是用來產生報告的原始資料==============
-** 預測各種投資商品的泡沫機率資料: **</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;br /&gt;
 Daily Buy Map:
 ![本地圖像](./buyMap.svg)
@@ -224,6 +139,91 @@
 Daily Radar Chart:
 ![本地圖像](./radar.svg)
 &lt;br /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請嚴格遵照以下指示來產生報告
+無論看到怎樣的資料請用公正客觀不帶偏見與情緒的方式來解讀，一切只是自然現象而已
+建立資訊航母表格:
+1. 請在Spatial 找出所有市場與新聞的三位一體，可以用經濟學，社會學，心理學，博弈論，進行大膽假設
+2. 請在Temporal 找出所有市場與新聞的三位一體，可以用經濟學，社會學，心理學，博弈論，進行大膽假設
+3. 請在Conceptional 找出所有市場與新聞的三位一體，可以用經濟學，社會學，心理學，博弈論，進行大膽假設
+4. 將上述資訊使用三位一體正反合的方式，用最少文字表達最多意義，整理成表格
+5. 根據以上所有表格的內容，找出風險對沖的各種投資組合機會，彼此相位盡量滿足120度，相關係數約-0.5，整理成表格
+6. 對上述所有表格進行彼此之間的三位一體，兩兩相互驗證的篩選假設分析，使其能盡量合情合理，給出多項資產之間可能的漣漪效應傳導路徑
+寫作要求:
+1. 請引用與各資產類別，有關聯的新聞事件資料，提供一些觀察視角
+2. 請引用與各資產類別，歷史上出現過的相似場景，提供一些觀察視角
+3. 請針對各投資品種寫專業論述，說明現狀只是為了導引出經過深思熟慮的結論
+4. 請引用相似資產間與不同資產間，相對價格關係，既有的理論，提供一些觀察視角
+5. 請體察各種不同資產之間，既有的理論之外的，存在各種可能的關聯性，提供一些觀察視角
+6. 請提出穩健，成長，與高風險，三種能在當前環境下，最佳化的配置項目與"比例"(穩健，成長，與高風險三大類總和要是100%)，各選三個子投資項目來配置
+報告規格:
+1. 請不要忽視任何泡沫風險高的投資警告
+2. 報告內不要出現表格，繁體中文字數需要大於5000字
+3. 請主體使用繁體中文來進行報告書寫，採用記敘論說文
+4. symbol由券商名稱和資產名稱組成，寫報告的時候，請忽略券商名稱的部分
+5. 請適時提供資訊航母表格的各種觀點，包含經濟學，社會學，心理學，博弈論，歷史，新聞，既有理論內，以及之外的觀點
+6. 不要特別強調實際使用那些技巧來完成報告，也不要提到資料裡的特殊術語，但是價格與風險可以提及，PP100即是當日現價，泡沫分數越高即是風險越高，泡沫指數D1/D7/D14/D30，則是當日，七天平均，兩週平均，月平均風險分數
+報告撰寫格式:
+以下回答格式僅作參考，請根據後續給予的資料製作報告，分析資產類別請盡量帶到此時所有關鍵的投資類別
+## 投資商品泡沫分析
+- **美國國債**
+  ...
+- **美國零售股**
+  ...
+- **美國科技股**
+  ...
+- **美國房地產指數**
+  ...
+- **加密貨幣**
+  ...
+- **金/銀/銅**
+  ...
+- **黃豆 / 小麥 / 玉米**
+  ...
+- **石油/ 鈾期貨UX!**
+  ...
+- **各國外匯市場**
+  ...
+- **各國大盤指數**
+  ...
+- **美國半導體股**
+  ...
+- **美國銀行股**
+  ...
+- **美國軍工股**
+  ...
+- **美國電子支付股**
+  ...
+- **美國藥商股**
+  ...
+- **美國影視股**
+  ...
+- **美國媒體股**
+  ...
+- **石油防禦股**
+  ...
+- **金礦防禦股**
+  ...
+- **歐洲奢侈品股**
+  ...
+- **歐洲汽車股**
+  ...
+- **歐美食品股**
+  ...
+## 宏觀經濟傳導路徑分析
+  ...
+## 微觀經濟傳導路徑分析
+  ...
+## 資產類別間傳導路徑分析
+  ...
+## 投資建議
+  ...
+## 風險提示
+投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
+==============以下皆是用來產生報告的原始資料==============
+** 預測各種投資商品的泡沫機率資料: **</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,14 +557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="102" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83E38B-C2AF-43DE-A207-D1A3885BB397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E6BC6-08F4-4144-9BFC-1D3EF2EEBABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -48,22 +48,6 @@
   </si>
   <si>
     <t>titleText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---
-title: "%s 投資日報"
-category: "財經資訊宇宙"
-subcategory: "投資日報"
-date: "%s"
-heroImage: {
-    src: "./hero.jpg",
-    alt: "易經算命",
-    }
-tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品"]
-author: "Tim Chen"
-isDraft: false
----</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +208,22 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---
+title: "%s 投資日報"
+category: "財經資訊宇宙"
+subcategory: "投資日報"
+date: "%s"
+heroImage: {
+    src: "./hero.jpg",
+    alt: "易經算命",
+    }
+tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "gpt-o1"]
+author: "Tim Chen"
+isDraft: false
+---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
@@ -604,63 +604,63 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E6BC6-08F4-4144-9BFC-1D3EF2EEBABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D03ED-C863-4483-9569-0E7E846D08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1275" windowWidth="26235" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請嚴格遵照以下指示來產生報告
+    <t>---
+title: "%s 投資日報"
+category: "財經資訊宇宙"
+subcategory: "投資日報"
+date: "%s"
+heroImage: {
+    src: "./hero.jpg",
+    alt: "易經算命",
+    }
+tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "gpt-o3"]
+author: "Tim Chen"
+isDraft: false
+---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請不要搜尋網路資料
+請嚴格遵照以下指示來產生報告
 無論看到怎樣的資料請用公正客觀不帶偏見與情緒的方式來解讀，一切只是自然現象而已
 建立資訊航母表格:
 1. 請在Spatial 找出所有市場與新聞的三位一體，可以用經濟學，社會學，心理學，博弈論，進行大膽假設
@@ -208,22 +225,6 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---
-title: "%s 投資日報"
-category: "財經資訊宇宙"
-subcategory: "投資日報"
-date: "%s"
-heroImage: {
-    src: "./hero.jpg",
-    alt: "易經算命",
-    }
-tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "gpt-o1"]
-author: "Tim Chen"
-isDraft: false
----</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -580,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -604,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156D03ED-C863-4483-9569-0E7E846D08A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B38D9-164A-45A8-84F4-B98FF64D4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>請不要搜尋網路資料
+    <t>無篇幅限制，不要搜尋網路資料
 請嚴格遵照以下指示來產生報告
-無論看到怎樣的資料請用公正客觀不帶偏見與情緒的方式來解讀，一切只是自然現象而已
+無論看到怎樣的資料，請用公正客觀不帶偏見與情緒的方式來解讀，一切只是自然現象而已
 建立資訊航母表格:
 1. 請在Spatial 找出所有市場與新聞的三位一體，可以用經濟學，社會學，心理學，博弈論，進行大膽假設
 2. 請在Temporal 找出所有市場與新聞的三位一體，可以用經濟學，社會學，心理學，博弈論，進行大膽假設
@@ -559,7 +559,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B38D9-164A-45A8-84F4-B98FF64D4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBAEB4-AB3C-48A5-BBD5-9D61BD8AAACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,22 +123,6 @@
 Daily Radar Chart:
 ![本地圖像](./radar.svg)
 &lt;br /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>---
-title: "%s 投資日報"
-category: "財經資訊宇宙"
-subcategory: "投資日報"
-date: "%s"
-heroImage: {
-    src: "./hero.jpg",
-    alt: "易經算命",
-    }
-tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "gpt-o3"]
-author: "Tim Chen"
-isDraft: false
----</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,6 +209,22 @@
 投資有風險，市場總是充滿不確定性。我們的建議僅供參考，投資者應根據自身的風險承受能力和投資目標，做出獨立的投資決策。
 ==============以下皆是用來產生報告的原始資料==============
 ** 預測各種投資商品的泡沫機率資料: **</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---
+title: "%s 投資日報"
+category: "財經資訊宇宙"
+subcategory: "投資日報"
+date: "%s"
+heroImage: {
+    src: "./hero.jpg",
+    alt: "易經算命",
+    }
+tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "Gemini-2.5 Pro"]
+author: "Tim Chen"
+isDraft: false
+---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="157.5" x14ac:dyDescent="0.25">

--- a/gptSettings/gptSettingsV2.xlsx
+++ b/gptSettings/gptSettingsV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\InfiniteWisdom\gptSettings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBAEB4-AB3C-48A5-BBD5-9D61BD8AAACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CFE836-4CD1-40E7-962D-B1F1B588B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1275" windowWidth="22740" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
     src: "./hero.jpg",
     alt: "易經算命",
     }
-tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "Gemini-2.5 Pro"]
+tags: ["投資日報", "照妖鏡", "債券", "股票", "匯率", "大宗商品", "ChatGPT-5"]
 author: "Tim Chen"
 isDraft: false
 ---</t>
@@ -559,7 +559,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
